--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed1/result_data_KNN.xlsx
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.769</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -556,10 +556,10 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.85</v>
+        <v>-7.585000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>16.902</v>
+        <v>16.925</v>
       </c>
     </row>
     <row r="8">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.068</v>
       </c>
     </row>
     <row r="16">
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.48</v>
+        <v>-8.635999999999999</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.658</v>
+        <v>16.557</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.678</v>
+        <v>16.468</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.602</v>
+        <v>16.434</v>
       </c>
     </row>
     <row r="24">
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.274000000000001</v>
+        <v>-8.055</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.625999999999999</v>
+        <v>-7.292</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.123999999999999</v>
+        <v>-7.935999999999998</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>16.814</v>
+        <v>16.881</v>
       </c>
     </row>
     <row r="35">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.81</v>
+        <v>-8.132</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.592</v>
+        <v>17.083</v>
       </c>
     </row>
     <row r="44">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.472</v>
+        <v>16.774</v>
       </c>
     </row>
     <row r="46">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.614</v>
+        <v>16.403</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.742</v>
+        <v>16.532</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.828</v>
+        <v>-7.911000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-8.101000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1559,10 +1559,10 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.545999999999999</v>
+        <v>-7.419</v>
       </c>
       <c r="E66" t="n">
-        <v>16.876</v>
+        <v>17.325</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.85</v>
+        <v>17.296</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.36</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.688</v>
+        <v>16.608</v>
       </c>
     </row>
     <row r="85">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.542</v>
+        <v>17.829</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>17.056</v>
+        <v>16.872</v>
       </c>
     </row>
     <row r="98">
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.488000000000001</v>
+        <v>-8.180999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
